--- a/AD010_内部定義/BB020_ER図/BB020010_ER図.xlsx
+++ b/AD010_内部定義/BB020_ER図/BB020010_ER図.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\投資システム\No002_三段階スクリーン・トレーディング・システム\ドキュメント\AD010_内部定義\BB020_ER図\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6C4F46-E46F-4AEE-B8CD-F9F775A69B9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B32615-928D-4172-9055-C96AB44E6875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2148" yWindow="4296" windowWidth="15240" windowHeight="15672" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="6360" windowWidth="19180" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="簡易モデル" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>種類</t>
     <rPh sb="0" eb="2">
@@ -57,13 +57,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>株価時系列</t>
-    <rPh sb="0" eb="5">
-      <t>カブカジケイレツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>識別番号</t>
     <rPh sb="0" eb="4">
       <t>シキベツバンゴウ</t>
@@ -80,6 +73,69 @@
   </si>
   <si>
     <t>株銘柄ID(FK)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テクニカル指標</t>
+    <rPh sb="5" eb="7">
+      <t>シヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株価時系列期間の種類</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株価時系列</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株価計算値の種類</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株価計算値</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シミュレーション明細</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コード種類</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コード値</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指標の種類ID(FK)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コード種類(FK)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期間の種類ID(FK)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株価時系列期間の種類ID(FK)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テクニカル指標ID(FK)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株価時系列ID(FK)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株価計算値の種類(FK)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -138,9 +194,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -162,14 +219,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>662940</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2540</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -186,8 +243,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1318260" y="563880"/>
-          <a:ext cx="670560" cy="236220"/>
+          <a:off x="1219200" y="552450"/>
+          <a:ext cx="650240" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -268,23 +325,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="コネクタ: カギ線 6">
+        <xdr:cNvPr id="10" name="コネクタ: カギ線 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C27578FA-A8AF-4DE5-962D-1A5476FCCFC1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CF9B7C6-C8B9-4857-B14F-B836C629D062}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -292,8 +349,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4427220" y="571500"/>
-          <a:ext cx="670560" cy="236220"/>
+          <a:off x="4395470" y="2857500"/>
+          <a:ext cx="660400" cy="236220"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -317,6 +374,710 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="コネクタ: カギ線 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CEAF8F8-B707-4B63-8317-50F1DC0D630B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4395470" y="4000500"/>
+          <a:ext cx="660400" cy="236220"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="コネクタ: カギ線 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89CB940A-843B-40CE-AEBB-D7F90146072F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4395470" y="5372100"/>
+          <a:ext cx="660400" cy="236220"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="コネクタ: カギ線 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AC21586-CD4B-48A3-BE0C-8A951F47FBD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2782570" y="1714500"/>
+          <a:ext cx="660400" cy="236220"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="コネクタ: カギ線 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC528C73-732C-45A5-9907-311698F38468}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4400550" y="533400"/>
+          <a:ext cx="635000" cy="260350"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直線コネクタ 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{712F7B12-F6C5-4B33-A2E5-1CF27874D024}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5035550" y="1016000"/>
+          <a:ext cx="19050" cy="1606550"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直線矢印コネクタ 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23C3A4AE-5B28-454A-B4A6-5AD41E2968EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5041900" y="2635250"/>
+          <a:ext cx="360000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="20" name="グループ化 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6243F02F-9977-413A-8AAB-6ADACE9FB884}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9601200" y="1022350"/>
+          <a:ext cx="666750" cy="1638300"/>
+          <a:chOff x="9601200" y="1022350"/>
+          <a:chExt cx="666750" cy="1409700"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="45" name="直線コネクタ 44">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3BAFF5E-C6DE-45CF-BE51-B2E30EEB0B94}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9601200" y="2432050"/>
+            <a:ext cx="330200" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="46" name="直線コネクタ 45">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75D10730-E0A6-4D3B-ABBC-E26692D030F2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="9931400" y="1022350"/>
+            <a:ext cx="12700" cy="1403350"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="55" name="直線矢印コネクタ 54">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4921C631-BD76-4620-8F20-7B94EBC116A9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9950450" y="1028700"/>
+            <a:ext cx="317500" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ACB1660-F2D6-4BF1-AD34-843458DAC88D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5060950" y="1016000"/>
+          <a:ext cx="336550" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>294350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線コネクタ 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{917B0B66-6FEE-4990-926D-C41B54E85547}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4743450" y="2406650"/>
+          <a:ext cx="288000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>120649</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="30" name="グループ化 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54280BF0-107E-420D-BEC0-72132F9F7DE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4762500" y="806449"/>
+          <a:ext cx="628650" cy="908052"/>
+          <a:chOff x="10680700" y="603711"/>
+          <a:chExt cx="628650" cy="610871"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="31" name="直線コネクタ 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90374BBE-00E6-40C0-8057-459D74CE6509}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="10680700" y="603711"/>
+            <a:ext cx="180000" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="32" name="直線コネクタ 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1361B2C8-009F-4ACB-94E9-E2A405C8A5FB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10852150" y="603712"/>
+            <a:ext cx="0" cy="606598"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="33" name="直線矢印コネクタ 32">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31ECEED4-52F4-4303-9E87-FA6DB03254C7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10858500" y="1214582"/>
+            <a:ext cx="450850" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -585,19 +1346,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:H4"/>
+  <dimension ref="B2:L13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.4140625" customWidth="1"/>
+    <col min="2" max="2" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:12">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -608,32 +1372,114 @@
         <v>2</v>
       </c>
       <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="2:8">
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="2:12">
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>4</v>
+      <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="1" t="s">
+    <row r="5" spans="2:12">
+      <c r="H5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="H8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="H9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="1" t="s">
+    </row>
+    <row r="10" spans="2:12">
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
         <v>7</v>
+      </c>
+      <c r="J11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="F12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="H13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
